--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/8 Matriz de Riesgos/3 Identificación de Riesgos de Fraude en Transacciones Inusuales.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/8 Matriz de Riesgos/3 Identificación de Riesgos de Fraude en Transacciones Inusuales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\8 Matriz de Riesgos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\8 Matriz de Riesgos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6E0AA0-664F-410C-AAA6-A372F22DE22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95BA9F0-3FE7-4E7C-BE01-59838E1245B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATRIZ" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>Matriz de Riesgos de Transacciones Inusuales en Cuentas Contables</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                ENTIDAD XXXXXXXXXXXXXXXXXXXXX</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">                                                                                                                                                                                        </t>
     </r>
@@ -125,12 +122,6 @@
       </rPr>
       <t xml:space="preserve">                                  </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                  Del 01 de Enero al 31 de Diciembre de 2023 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                      Auditoria de Estados Financieros </t>
   </si>
   <si>
     <t xml:space="preserve">Cuenta Contable       </t>
@@ -262,6 +253,15 @@
   <si>
     <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
+  <si>
+    <t>ENTIDAD XXXXXXXXXXXXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditoria de Estados Financieros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del 01 de Enero al 31 de Diciembre de 2023 </t>
+  </si>
 </sst>
 </file>
 
@@ -270,7 +270,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,12 +280,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -559,119 +553,116 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -686,37 +677,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -730,24 +714,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1677,17 +1670,17 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B3:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
     <col min="7" max="7" width="68.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
@@ -1713,118 +1706,122 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="47"/>
-      <c r="D7" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="47"/>
+      <c r="B7" s="46"/>
+      <c r="D7" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="47"/>
+      <c r="B8" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="1"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
-      <c r="D9" s="48" t="s">
+      <c r="B9" s="47"/>
+      <c r="D9" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="47"/>
+      <c r="D10" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+    </row>
+    <row r="13" spans="2:13" s="59" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
-      <c r="D10" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="47"/>
-    </row>
-    <row r="13" spans="2:13" s="63" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="67" t="s">
+      <c r="D13" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="61"/>
+    </row>
+    <row r="14" spans="2:13" s="12" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="E14" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+    </row>
+    <row r="15" spans="2:13" s="12" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="67" t="s">
+      <c r="C15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="2:13" s="12" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="65"/>
-    </row>
-    <row r="14" spans="2:13" s="13" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-    </row>
-    <row r="15" spans="2:13" s="13" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="2:13" s="13" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="64"/>
+      <c r="G16" s="60"/>
     </row>
     <row r="17" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
@@ -1891,43 +1888,49 @@
       <c r="G24" s="2"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="54"/>
+      <c r="B27" s="50"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="47"/>
+      <c r="B30" s="46"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="68"/>
+      <c r="B37" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="64"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="57" t="s">
-        <v>56</v>
+      <c r="B38" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="53" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1935,7 +1938,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="Control 1">
+        <control shapeId="1028" r:id="rId4" name="Control 4">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1955,13 +1958,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+        <control shapeId="1028" r:id="rId4" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1027" r:id="rId6" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1980,13 +1983,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+        <control shapeId="1027" r:id="rId6" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId7" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1026" r:id="rId8" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2005,13 +2008,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId7" name="Control 3"/>
+        <control shapeId="1026" r:id="rId8" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId8" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId9">
+        <control shapeId="1025" r:id="rId9" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2030,7 +2033,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId8" name="Control 4"/>
+        <control shapeId="1025" r:id="rId9" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -2042,8 +2045,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B3:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,8 +2065,8 @@
   <sheetData>
     <row r="3" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I3" s="1"/>
-      <c r="J3" s="71" t="s">
-        <v>59</v>
+      <c r="J3" s="65" t="s">
+        <v>56</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -2081,34 +2084,43 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="E7" s="69" t="s">
-        <v>60</v>
-      </c>
+      <c r="C7" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C8" s="6"/>
-      <c r="E8" s="70" t="s">
-        <v>57</v>
-      </c>
+    <row r="8" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C8" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="E9" s="70" t="s">
-        <v>61</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="E10" s="69" t="s">
-        <v>58</v>
-      </c>
+      <c r="C10" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
     </row>
     <row r="11" spans="2:16" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
@@ -2135,7 +2147,7 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="2:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="6"/>
@@ -2149,7 +2161,7 @@
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="2:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="6"/>
@@ -2163,7 +2175,7 @@
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="2:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="6"/>
@@ -2177,7 +2189,7 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="2:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="6"/>
@@ -2191,7 +2203,7 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="2:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="6"/>
@@ -2205,7 +2217,7 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="2:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="6"/>
@@ -2219,7 +2231,7 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="2:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="6"/>
@@ -2245,7 +2257,7 @@
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="6"/>
@@ -2258,75 +2270,75 @@
       <c r="J21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="2:12" s="9" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
+    <row r="22" spans="2:12" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="L22" s="38"/>
-    </row>
-    <row r="23" spans="2:12" s="9" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="L22" s="37"/>
+    </row>
+    <row r="23" spans="2:12" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="L23" s="38"/>
-    </row>
-    <row r="24" spans="2:12" s="9" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="39" t="s">
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="L23" s="37"/>
+    </row>
+    <row r="24" spans="2:12" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="L24" s="38"/>
-    </row>
-    <row r="25" spans="2:12" s="9" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="L24" s="37"/>
+    </row>
+    <row r="25" spans="2:12" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="L25" s="38"/>
-    </row>
-    <row r="26" spans="2:12" s="9" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="L25" s="37"/>
+    </row>
+    <row r="26" spans="2:12" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="L26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="L26" s="37"/>
     </row>
     <row r="27" spans="2:12" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
@@ -2341,189 +2353,189 @@
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="41">
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="40">
         <v>1</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="44" t="s">
+      <c r="H29" s="43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="42">
+    <row r="30" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="18"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="41">
         <v>2</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="22">
+    <row r="31" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="21">
         <v>1</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="33">
         <v>10000000</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="41">
         <v>3</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="42">
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="21"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="41">
         <v>4</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="44"/>
-    </row>
-    <row r="33" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="25"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="43">
+      <c r="H32" s="43"/>
+    </row>
+    <row r="33" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="24"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="42">
         <v>5</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="44" t="s">
+      <c r="H33" s="43" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29" t="s">
+      <c r="F37" s="27"/>
+      <c r="G37" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="H37" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I37" s="12"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18" t="s">
+      <c r="B38" s="15"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="13"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="19"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="36"/>
-      <c r="I39" s="13"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="31"/>
-      <c r="I40" s="13"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="22"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="21" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="36"/>
-      <c r="I41" s="13"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="12"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="33"/>
-      <c r="I42" s="13"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
@@ -2532,168 +2544,168 @@
       <c r="B44" s="4"/>
     </row>
     <row r="46" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="29" t="s">
+      <c r="F46" s="27"/>
+      <c r="G46" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="28" t="s">
+      <c r="H46" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I46" s="12"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="18" t="s">
+      <c r="B47" s="15"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="35"/>
-      <c r="I47" s="13"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="19"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="36"/>
-      <c r="I48" s="13"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="19"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21" t="s">
+      <c r="B49" s="18"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="31"/>
-      <c r="I49" s="13"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="22"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="21" t="s">
+      <c r="B50" s="21"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="36"/>
-      <c r="I50" s="13"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="12"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="25"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="27" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="33"/>
-      <c r="I51" s="13"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="55" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="28"/>
-      <c r="G55" s="29" t="s">
+      <c r="F55" s="27"/>
+      <c r="G55" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="28" t="s">
+      <c r="H55" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="12"/>
+      <c r="I55" s="11"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="18" t="s">
+      <c r="B56" s="15"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="35"/>
-      <c r="I56" s="13"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="19"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="21" t="s">
+      <c r="B57" s="18"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="36"/>
-      <c r="I57" s="13"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="19"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="21" t="s">
+      <c r="B58" s="18"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="31"/>
-      <c r="I58" s="13"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="12"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="22"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="21" t="s">
+      <c r="B59" s="21"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="36"/>
-      <c r="I59" s="13"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="12"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="25"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="27" t="s">
+      <c r="B60" s="24"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="33"/>
-      <c r="I60" s="13"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
@@ -2702,136 +2714,142 @@
       <c r="B62" s="4"/>
     </row>
     <row r="64" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="28" t="s">
+      <c r="D64" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="28" t="s">
+      <c r="E64" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29" t="s">
+      <c r="F64" s="27"/>
+      <c r="G64" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H64" s="28" t="s">
+      <c r="H64" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I64" s="12"/>
+      <c r="I64" s="11"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="18" t="s">
+      <c r="B65" s="15"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H65" s="35"/>
-      <c r="I65" s="13"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="19"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="21" t="s">
+      <c r="B66" s="18"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H66" s="36"/>
-      <c r="I66" s="13"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="19"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="21" t="s">
+      <c r="B67" s="18"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="31"/>
-      <c r="I67" s="13"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="22"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="21" t="s">
+      <c r="B68" s="21"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H68" s="36"/>
-      <c r="I68" s="13"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="12"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="25"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="27" t="s">
+      <c r="B69" s="24"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="33"/>
-      <c r="I69" s="13"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="12"/>
     </row>
     <row r="72" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="54" t="s">
+      <c r="B72" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+    </row>
+    <row r="74" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+    </row>
+    <row r="75" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="46" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="47" t="s">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
-    </row>
-    <row r="74" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="47" t="s">
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="51"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
-    </row>
-    <row r="75" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="47" t="s">
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="55" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="F82" s="55"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" s="58"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="F83" s="60"/>
+      <c r="F83" s="56"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2839,7 +2857,82 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId4" name="Control 4">
+        <control shapeId="2049" r:id="rId4" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId4" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId6" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId6" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId7" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId7" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId8" name="Control 4">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -2859,82 +2952,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId4" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId6" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId6" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId7" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId7" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId8" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId8" name="Control 1"/>
+        <control shapeId="2052" r:id="rId8" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
